--- a/BalanceSheet/ADI_bal.xlsx
+++ b/BalanceSheet/ADI_bal.xlsx
@@ -3044,19 +3044,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-27275000.0</v>
+        <v>396000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-71146000.0</v>
+        <v>417000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-7412000.0</v>
+        <v>438000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-21408000.0</v>
+        <v>447000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-13982000.0</v>
+        <v>488000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>2088212000.0</v>
